--- a/代码复习/赵泽文 简历/就业大礼包/踩雷公司汇总.xlsx
+++ b/代码复习/赵泽文 简历/就业大礼包/踩雷公司汇总.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="635">
   <si>
     <t>北京企业黑名单</t>
   </si>
@@ -3711,6 +3711,20 @@
   <si>
     <t>说有岗前培训，进项目组后待遇多好多好，一定不能信，变着法让你交钱培训</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉佰钧成科技有限公司</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>（外派到顺丰的工作地点在深大）走廊办公，没有自己的工位，公司不给配电脑，需要用自己电脑办公(听同学说的)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
   </si>
 </sst>
 </file>
@@ -3948,7 +3962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3976,9 +3990,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4087,18 +4098,108 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4109,6 +4210,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B104" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:B104"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="列1" dataDxfId="3"/>
+    <tableColumn id="2" name="列2" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4404,997 +4516,997 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="39.09765625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="62.69921875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="39.09765625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="62.69921875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" style="28" customWidth="1"/>
     <col min="5" max="7" width="9" style="13"/>
     <col min="8" max="8" width="12.69921875" style="13" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>7</v>
-      </c>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="25">
         <v>10</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="25">
         <v>11</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="25">
         <v>12</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="25">
         <v>13</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="25">
         <v>14</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="25">
         <v>15</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="25">
         <v>16</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="25">
         <v>17</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="25">
         <v>18</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="25">
         <v>19</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="25">
         <v>20</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="25">
         <v>21</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="25">
         <v>22</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="25">
         <v>23</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27" s="25">
         <v>24</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="25">
         <v>25</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="25">
         <v>26</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+      <c r="A30" s="25">
         <v>27</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="39" t="s">
+      <c r="D30" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="25">
         <v>28</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="25">
         <v>29</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="A33" s="25">
         <v>30</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34" s="25">
         <v>31</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
+      <c r="A35" s="25">
         <v>32</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36" s="25">
         <v>33</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="25">
         <v>34</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+      <c r="A38" s="25">
         <v>35</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
+      <c r="A39" s="25">
         <v>36</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
+      <c r="A40" s="25">
         <v>37</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
+      <c r="A41" s="25">
         <v>38</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
+      <c r="A42" s="25">
         <v>39</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+      <c r="A43" s="25">
         <v>40</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="A44" s="25">
         <v>41</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+      <c r="A45" s="25">
         <v>42</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+      <c r="A46" s="25">
         <v>43</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
+      <c r="A47" s="25">
         <v>44</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48" s="25">
         <v>45</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28">
+      <c r="A49" s="25">
         <v>46</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
+      <c r="A50" s="25">
         <v>47</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
+      <c r="A51" s="25">
         <v>48</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
+      <c r="A52" s="25">
         <v>49</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+      <c r="A53" s="25">
         <v>50</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+      <c r="A54" s="25">
         <v>51</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
+      <c r="A55" s="25">
         <v>52</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="28">
+      <c r="A56" s="25">
         <v>53</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="28">
+      <c r="A57" s="25">
         <v>54</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="28">
+      <c r="A58" s="25">
         <v>55</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28">
+      <c r="A59" s="25">
         <v>56</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="28">
+      <c r="A60" s="25">
         <v>57</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="28">
+      <c r="A61" s="25">
         <v>58</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
+      <c r="A62" s="25">
         <v>59</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="28">
+      <c r="A63" s="25">
         <v>60</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="28">
+      <c r="A64" s="25">
         <v>61</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="28">
+      <c r="A65" s="25">
         <v>62</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
+      <c r="A66" s="25">
         <v>63</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="28">
+      <c r="A67" s="25">
         <v>64</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="28">
+      <c r="A68" s="25">
         <v>65</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="28">
+      <c r="A69" s="25">
         <v>66</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28">
+      <c r="A70" s="25">
         <v>67</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="28">
+      <c r="A71" s="25">
         <v>68</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="28">
+      <c r="A72" s="25">
         <v>69</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="42" t="s">
+      <c r="C72" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="13" t="s">
@@ -5402,664 +5514,664 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="28">
+      <c r="A73" s="25">
         <v>70</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="28">
+      <c r="A74" s="25">
         <v>71</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="28">
+      <c r="A75" s="25">
         <v>72</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="28">
+      <c r="A76" s="25">
         <v>73</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="28">
+      <c r="A77" s="25">
         <v>74</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="28">
+      <c r="A78" s="25">
         <v>75</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="42" t="s">
+      <c r="C78" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="28">
+      <c r="A79" s="25">
         <v>76</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="28">
+      <c r="A80" s="25">
         <v>77</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="D80" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="28">
+      <c r="A81" s="25">
         <v>78</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="28">
+      <c r="A82" s="25">
         <v>79</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="28">
+      <c r="A83" s="25">
         <v>80</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="28">
+      <c r="A84" s="25">
         <v>81</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="28">
+      <c r="A85" s="25">
         <v>82</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C85" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="28">
+      <c r="A86" s="25">
         <v>83</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="42"/>
-      <c r="D86" s="28" t="s">
+      <c r="C86" s="39"/>
+      <c r="D86" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="47">
+      <c r="A87" s="44">
         <v>84</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="28" t="s">
+      <c r="C87" s="45"/>
+      <c r="D87" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="28">
+      <c r="A88" s="25">
         <v>85</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28" t="s">
+      <c r="C88" s="25"/>
+      <c r="D88" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="28">
+      <c r="A89" s="25">
         <v>86</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28" t="s">
+      <c r="C89" s="25"/>
+      <c r="D89" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="28">
+      <c r="A90" s="25">
         <v>87</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28" t="s">
+      <c r="C90" s="25"/>
+      <c r="D90" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="47">
+      <c r="A91" s="44">
         <v>88</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28" t="s">
+      <c r="C91" s="25"/>
+      <c r="D91" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="28">
+      <c r="A92" s="25">
         <v>89</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28" t="s">
+      <c r="C92" s="25"/>
+      <c r="D92" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="28">
+      <c r="A93" s="25">
         <v>90</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28" t="s">
+      <c r="C93" s="25"/>
+      <c r="D93" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="28">
+      <c r="A94" s="25">
         <v>91</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28" t="s">
+      <c r="C94" s="25"/>
+      <c r="D94" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="47">
+      <c r="A95" s="44">
         <v>92</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28" t="s">
+      <c r="C95" s="25"/>
+      <c r="D95" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="28">
+      <c r="A96" s="25">
         <v>93</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28" t="s">
+      <c r="C96" s="25"/>
+      <c r="D96" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="28">
+      <c r="A97" s="25">
         <v>94</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28" t="s">
+      <c r="C97" s="25"/>
+      <c r="D97" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="28">
+      <c r="A98" s="25">
         <v>95</v>
       </c>
-      <c r="B98" s="49" t="s">
+      <c r="B98" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28" t="s">
+      <c r="C98" s="25"/>
+      <c r="D98" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="47">
+      <c r="A99" s="44">
         <v>96</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28" t="s">
+      <c r="C99" s="25"/>
+      <c r="D99" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="28">
+      <c r="A100" s="25">
         <v>97</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28" t="s">
+      <c r="C100" s="25"/>
+      <c r="D100" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="28">
+      <c r="A101" s="25">
         <v>98</v>
       </c>
-      <c r="B101" s="50" t="s">
+      <c r="B101" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28" t="s">
+      <c r="C101" s="25"/>
+      <c r="D101" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="28">
+      <c r="A102" s="25">
         <v>99</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28" t="s">
+      <c r="C102" s="25"/>
+      <c r="D102" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="47">
+      <c r="A103" s="44">
         <v>100</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28" t="s">
+      <c r="C103" s="25"/>
+      <c r="D103" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="28">
+      <c r="A104" s="25">
         <v>101</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28" t="s">
+      <c r="C104" s="25"/>
+      <c r="D104" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="28">
+      <c r="A105" s="25">
         <v>102</v>
       </c>
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28" t="s">
+      <c r="C105" s="25"/>
+      <c r="D105" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="28">
+      <c r="A106" s="25">
         <v>103</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28" t="s">
+      <c r="C106" s="25"/>
+      <c r="D106" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="47">
+      <c r="A107" s="44">
         <v>104</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28" t="s">
+      <c r="C107" s="25"/>
+      <c r="D107" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="28">
+      <c r="A108" s="25">
         <v>105</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28" t="s">
+      <c r="C108" s="25"/>
+      <c r="D108" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="28">
+      <c r="A109" s="25">
         <v>106</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28" t="s">
+      <c r="C109" s="25"/>
+      <c r="D109" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="28">
+      <c r="A110" s="25">
         <v>107</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28" t="s">
+      <c r="C110" s="25"/>
+      <c r="D110" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="47">
+      <c r="A111" s="44">
         <v>108</v>
       </c>
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28" t="s">
+      <c r="C111" s="25"/>
+      <c r="D111" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="28">
+      <c r="A112" s="25">
         <v>109</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="B112" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28" t="s">
+      <c r="C112" s="25"/>
+      <c r="D112" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="28">
+      <c r="A113" s="25">
         <v>110</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28" t="s">
+      <c r="C113" s="25"/>
+      <c r="D113" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="28">
+      <c r="A114" s="25">
         <v>111</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28" t="s">
+      <c r="C114" s="25"/>
+      <c r="D114" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="47">
+      <c r="A115" s="44">
         <v>112</v>
       </c>
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28" t="s">
+      <c r="C115" s="25"/>
+      <c r="D115" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="28">
+      <c r="A116" s="25">
         <v>113</v>
       </c>
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28" t="s">
+      <c r="C116" s="25"/>
+      <c r="D116" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="28">
+      <c r="A117" s="25">
         <v>114</v>
       </c>
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28" t="s">
+      <c r="C117" s="25"/>
+      <c r="D117" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="28">
+      <c r="A118" s="25">
         <v>115</v>
       </c>
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28" t="s">
+      <c r="C118" s="25"/>
+      <c r="D118" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="47">
+      <c r="A119" s="44">
         <v>116</v>
       </c>
-      <c r="B119" s="27" t="s">
+      <c r="B119" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28" t="s">
+      <c r="C119" s="25"/>
+      <c r="D119" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="28">
+      <c r="A120" s="25">
         <v>117</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28" t="s">
+      <c r="C120" s="25"/>
+      <c r="D120" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="28">
+      <c r="A121" s="25">
         <v>118</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28" t="s">
+      <c r="C121" s="25"/>
+      <c r="D121" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="28">
+      <c r="A122" s="25">
         <v>119</v>
       </c>
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28" t="s">
+      <c r="C122" s="25"/>
+      <c r="D122" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="47">
+      <c r="A123" s="44">
         <v>120</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28" t="s">
+      <c r="C123" s="25"/>
+      <c r="D123" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="28">
+      <c r="A124" s="25">
         <v>121</v>
       </c>
-      <c r="B124" s="27" t="s">
+      <c r="B124" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28" t="s">
+      <c r="C124" s="25"/>
+      <c r="D124" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="28">
+      <c r="A125" s="25">
         <v>122</v>
       </c>
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28" t="s">
+      <c r="C125" s="25"/>
+      <c r="D125" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6103,30 +6215,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6137,10 +6249,10 @@
       <c r="B4" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6148,1113 +6260,1113 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="D80" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D87" s="28" t="s">
+      <c r="D87" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D88" s="28" t="s">
+      <c r="D88" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="D89" s="28" t="s">
+      <c r="D89" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D90" s="28" t="s">
+      <c r="D90" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D92" s="28" t="s">
+      <c r="D92" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D93" s="28" t="s">
+      <c r="D93" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D94" s="28" t="s">
+      <c r="D94" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="26" t="s">
         <v>324</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D95" s="28" t="s">
+      <c r="D95" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="26" t="s">
         <v>219</v>
       </c>
       <c r="C96" s="12"/>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="26" t="s">
         <v>326</v>
       </c>
       <c r="C97" s="12"/>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7264,49 +7376,49 @@
         <v>327</v>
       </c>
       <c r="C98" s="12"/>
-      <c r="D98" s="28" t="s">
+      <c r="D98" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="26" t="s">
         <v>328</v>
       </c>
       <c r="C99" s="12"/>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="26" t="s">
         <v>329</v>
       </c>
       <c r="C100" s="12"/>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="D101" s="28" t="s">
+      <c r="D101" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="26" t="s">
         <v>332</v>
       </c>
       <c r="C102" s="12"/>
-      <c r="D102" s="28" t="s">
+      <c r="D102" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7318,7 +7430,7 @@
       <c r="C103" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D103" s="28" t="s">
+      <c r="D103" s="25" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7328,7 +7440,7 @@
         <v>336</v>
       </c>
       <c r="C104" s="12"/>
-      <c r="D104" s="28"/>
+      <c r="D104" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7354,706 +7466,706 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>7</v>
-      </c>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>10</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>15</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>16</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>17</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>18</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>19</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>20</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="19">
         <v>21</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="19">
         <v>22</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="19">
         <v>23</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="19">
         <v>24</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="19">
         <v>25</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="19">
         <v>26</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="19">
         <v>27</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="19">
         <v>28</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="19">
         <v>29</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="19">
         <v>30</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="A34" s="19">
         <v>31</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35" s="19">
         <v>32</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="19">
         <v>33</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="A37" s="19">
         <v>34</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="A38" s="19">
         <v>35</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="A39" s="19">
         <v>36</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="19">
         <v>37</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="A41" s="19">
         <v>38</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="A42" s="19">
         <v>39</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="19">
         <v>40</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="A44" s="19">
         <v>41</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+      <c r="A45" s="19">
         <v>42</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="A46" s="19">
         <v>43</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
+      <c r="A47" s="19">
         <v>44</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="19">
         <v>45</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="A49" s="19">
         <v>46</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
+      <c r="A50" s="19">
         <v>47</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+      <c r="A51" s="19">
         <v>48</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
+      <c r="A52" s="19">
         <v>49</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
+      <c r="A53" s="19">
         <v>50</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="19">
         <v>51</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+      <c r="A55" s="19">
         <v>52</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
+      <c r="A56" s="19">
         <v>53</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+      <c r="A57" s="19">
         <v>54</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="A58" s="19">
         <v>55</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
+      <c r="A59" s="19">
         <v>56</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="19">
         <v>57</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
+      <c r="A61" s="19">
         <v>58</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="A62" s="19">
         <v>59</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
+      <c r="A63" s="19">
         <v>60</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
+      <c r="A64" s="19">
         <v>61</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="19">
         <v>62</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
+      <c r="A66" s="19">
         <v>63</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
+      <c r="A67" s="19">
         <v>64</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
+      <c r="A68" s="19">
         <v>65</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
+      <c r="A69" s="19">
         <v>66</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+      <c r="A70" s="19">
         <v>67</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8079,378 +8191,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>10</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>15</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>18</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>19</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>20</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="19">
         <v>21</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="19">
         <v>22</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="19">
         <v>23</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="19">
         <v>24</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="19">
         <v>25</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="19">
         <v>26</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="19">
         <v>27</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="19">
         <v>28</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="19">
         <v>29</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8477,282 +8589,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>7</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>10</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>15</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>19</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>20</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="19">
         <v>21</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8769,590 +8881,599 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.59765625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="64.8984375" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="39.59765625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="64.8984375" style="59" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="59" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="59" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>449</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
         <v>452</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
         <v>454</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>455</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="59" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="59" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
         <v>461</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="59" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
         <v>463</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
         <v>464</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="59" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="59" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B17" s="59" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="18" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
         <v>470</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="59" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
         <v>472</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B19" s="59" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="59" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
         <v>476</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="59" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="59" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="59" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B24" s="59" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
         <v>484</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="59" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
         <v>485</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="59" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
         <v>487</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="59" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
         <v>489</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="59" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="29" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="59" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B30" s="59" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B31" s="59" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
         <v>497</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B32" s="59" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B33" s="59" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
         <v>501</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="59" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="59" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B36" s="59" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B37" s="59" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B38" s="59" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B39" s="59" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="59" t="s">
         <v>513</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B40" s="59" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B41" s="59" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="59" t="s">
         <v>517</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B42" s="59" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="59" t="s">
         <v>519</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B43" s="59" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B44" s="59" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B45" s="59" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="s">
         <v>525</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B46" s="62" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+    <row r="47" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="62" t="s">
         <v>527</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B47" s="62" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="63" t="s">
         <v>529</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B48" s="62" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="63" t="s">
         <v>531</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="62" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A50" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B50" s="62" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="62" t="s">
         <v>535</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B51" s="62" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="62" t="s">
         <v>537</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B52" s="62" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B53" s="59" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="s">
         <v>540</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B54" s="59" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="59" t="s">
         <v>542</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B55" s="59" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="s">
         <v>544</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B56" s="59" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="s">
         <v>546</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B57" s="59" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B58" s="59" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="s">
         <v>550</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B59" s="59" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="s">
         <v>552</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B60" s="59" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B61" s="59" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="59" t="s">
         <v>556</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B62" s="59" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="59" t="s">
         <v>558</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B63" s="59" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="59" t="s">
         <v>560</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B64" s="59" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B65" s="59" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="59" t="s">
         <v>564</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B66" s="59" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="59" t="s">
         <v>566</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B67" s="59" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="s">
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.6">
+      <c r="A70" s="65" t="s">
         <v>624</v>
       </c>
-      <c r="B69" s="63"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="63"/>
+      <c r="B70" s="66"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
-      <c r="B71" s="63"/>
+      <c r="A71" s="60" t="s">
+        <v>625</v>
+      </c>
+      <c r="B71" s="60" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="64" t="s">
-        <v>625</v>
-      </c>
-      <c r="B72" s="64" t="s">
-        <v>626</v>
+      <c r="A72" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="B72" s="60" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="64" t="s">
-        <v>627</v>
-      </c>
-      <c r="B73" s="64" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="64" t="s">
+      <c r="A73" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="B74" s="64" t="s">
+      <c r="B73" s="60" t="s">
         <v>630</v>
       </c>
     </row>
+    <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A69:B71"/>
-  </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
